--- a/topic_split/topic_22.xlsx
+++ b/topic_split/topic_22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>issue</t>
   </si>
@@ -22,34 +22,21 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
+    <t>Create Terms and Conditions Page
+Figma link 
+https://www.figma.com/design/myeW85ibN5p2SlnXcEpxFD/IFRC-GO---UI-Current---1?node-id=17004-167700&amp;t=anIjGUYUkLRrhk6d-4</t>
   </si>
   <si>
-    <t>[6.07904783e-308 2.06123469e-308 4.03961400e-308 1.98725150e-308
- 5.46335425e-308 1.05842863e-307 9.64532152e-308 9.88017022e-308
- 5.14214820e-308 9.09498831e-308 1.27484376e-307 4.88444369e-308
- 7.46979327e-308 2.58754653e-308 9.85845380e-308 1.19494091e-307
- 1.49298200e-307 9.30754905e-308 1.94495131e-307 1.41263116e-307
- 5.65653616e-308 1.00000000e+000 8.55877153e-308 1.06159470e-307
- 7.56759261e-308]</t>
+    <t>Create Cookie Policy Page and Cooke Banner
+Figma Links
+[Cookie Page](https://www.figma.com/design/myeW85ibN5p2SlnXcEpxFD/IFRC-GO---UI-Current---1?node-id=19614-216223&amp;t=anIjGUYUkLRrhk6d-4)
+[Cookie Banner](https://www.figma.com/design/myeW85ibN5p2SlnXcEpxFD/IFRC-GO---UI-Current---1?node-id=19614-215987&amp;t=anIjGUYUkLRrhk6d-4)</t>
   </si>
   <si>
-    <t>[8.15103623e-308 1.97090816e-308 3.50329911e-308 1.90094460e-308
- 4.89116348e-308 9.85535762e-308 7.74532236e-308 7.87184112e-308
- 4.27851214e-308 9.19132454e-308 8.89725452e-308 4.12585792e-308
- 5.97629300e-308 2.42462222e-308 8.07983990e-308 1.15224039e-307
- 1.91111781e-307 8.13460486e-308 1.34506909e-307 1.17104147e-307
- 4.64130070e-308 1.00000000e+000 6.74372311e-308 1.07108184e-307
- 5.94698169e-308]</t>
-  </si>
-  <si>
-    <t>[8.23943481e-308 1.93345084e-308 3.55616781e-308 1.87012146e-308
- 5.26638474e-308 1.19575691e-307 7.98964189e-308 8.86184500e-308
- 4.34807916e-308 7.96175049e-308 9.55683849e-308 4.14674130e-308
- 6.12285761e-308 2.37795207e-308 8.84148084e-308 9.73892476e-308
- 2.74778014e-307 8.74245829e-308 1.18522781e-307 1.02357258e-307
- 4.77181809e-308 1.00000000e+000 7.24420866e-308 9.23381522e-308
- 5.85207243e-308]</t>
+    <t xml:space="preserve">Capitalize GO on Storybook front page
+Please capitalize IFC Go to IFRC GO on the storybook front page:
+https://66557be6b68dacbf0a96db23-tyzmgxtoya.chromatic.com/?path=/docs/introduction--docs
+</t>
   </si>
 </sst>
 </file>
@@ -407,54 +394,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>48</v>
       </c>
       <c r="B2">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>143</v>
       </c>
       <c r="B3">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>167</v>
       </c>
       <c r="B4">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
